--- a/medicine/Pharmacie/Ambrisentan/Ambrisentan.xlsx
+++ b/medicine/Pharmacie/Ambrisentan/Ambrisentan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'ambrisentan est un inhibiteur des récepteurs de l'endothéline utilisé comme médicament par voie orale dans le traitement de l'hypertension artérielle pulmonaire.
@@ -512,9 +524,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il améliore les symptômes et le test de marche de 6 minutes des patients porteur d'une hypertension artérielle pulmonaire, à court[2] et à moyen terme[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il améliore les symptômes et le test de marche de 6 minutes des patients porteur d'une hypertension artérielle pulmonaire, à court et à moyen terme.
 Il n'existe cependant pas de preuve d'une amélioration de la mortalité.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il serait mieux toléré au niveau hépatique que le bosentan et le sitaxentan (en), permettant son utilisation à la place de ces derniers s'ils ont dû être arrêtés en raison de perturbation du bilan hépatique[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il serait mieux toléré au niveau hépatique que le bosentan et le sitaxentan (en), permettant son utilisation à la place de ces derniers s'ils ont dû être arrêtés en raison de perturbation du bilan hépatique.
 </t>
         </is>
       </c>
